--- a/docs/Piau-Tsu-Im.xlsx
+++ b/docs/Piau-Tsu-Im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C3D30-C53C-4884-B4DF-C488972D9CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84555C1C-E101-4BE3-98B9-426FA28A3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1890" windowWidth="26880" windowHeight="12300" xr2:uid="{445CE4F1-BDF4-473E-BEEB-89509534D2D2}"/>
+    <workbookView xWindow="-27765" yWindow="2280" windowWidth="26880" windowHeight="12300" activeTab="1" xr2:uid="{2F759125-2424-45DF-BB91-D4414BCD2EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -69,30 +69,14 @@
     <t>TITLE</t>
   </si>
   <si>
+    <t>文章標題</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>IMAGE_URL</t>
   </si>
   <si>
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
-  </si>
-  <si>
-    <t>顏氏家訓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏氏家訓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《序致》</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夫聖賢之書，教人誠孝，慎言檢跡，立身揚名，亦已備矣。魏、晉已來，所著諸子，理重事複，遞相模效，猶屋下架屋，床上施床耳。吾今所以復為此者，非敢軌物範世也，業以整齊門內，提撕子孫。夫同言而信，信其所親；同命而行，行其所服。禁童子之暴謔，則師友之誡，不如傅婢之指揮；止凡人之鬥鬩，則堯、舜之道，不如寡妻之誨諭。吾望此書為汝曹之所信，猶賢於傅婢寡妻耳。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾家風教，素為整密。昔在齠齔，便蒙誘誨；每從兩兄，曉夕溫凊。規行矩步，安辭定色，鏘鏘翼翼，若朝嚴君焉。賜以優言，問所好尚，勵短引長，莫不懇篤。年始九歲，便丁荼蓼，家塗離散，百口索然。慈兄鞠養，苦辛備至；有仁無威，導示不切。雖讀禮傳，微愛屬文，頗為凡人之所陶染，肆欲輕言，不脩邊幅。年十八九，少知砥礪，習若自然，卒難洗盪。二十已後，大過稀焉；每常心共口敵，性與情競，夜覺曉非，今悔昨失，自憐無教，以至於斯。追思平昔之指，銘肌鏤骨，非徒古書之誡，經目過耳也。故留此二十篇，以為汝曹後車耳。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -180,7 +164,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{21166AA2-381C-4217-ADDE-F384DC60D4EC}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{A15BF24C-200C-43E4-8EA6-07A7DDC5DCA2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,50 +495,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F956BFC6-E079-48FB-9D31-2A54D6C9E5B6}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35023A71-A9A8-406B-9A6C-FABAF1841F4C}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="76.5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="102">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503B1CAF-2017-44C4-865D-844487129198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01B987A-B342-4188-8C8E-2DAE9AC90738}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -594,15 +555,15 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Piau-Tsu-Im.xlsx
+++ b/docs/Piau-Tsu-Im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84555C1C-E101-4BE3-98B9-426FA28A3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0677332-3E17-4E0C-8DE9-5D7BB39C9063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27765" yWindow="2280" windowWidth="26880" windowHeight="12300" activeTab="1" xr2:uid="{2F759125-2424-45DF-BB91-D4414BCD2EC4}"/>
+    <workbookView xWindow="-27765" yWindow="2280" windowWidth="26880" windowHeight="12300" activeTab="1" xr2:uid="{0F402B08-5A55-4D85-BFFD-901EEEC63974}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{A15BF24C-200C-43E4-8EA6-07A7DDC5DCA2}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{9DEA7F30-8364-44F6-B624-EF5464289DD6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35023A71-A9A8-406B-9A6C-FABAF1841F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC62C9E7-1321-4646-A256-18D6AC7B7D83}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01B987A-B342-4188-8C8E-2DAE9AC90738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62874052-37F9-4701-BC25-52698E7721BA}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/docs/Piau-Tsu-Im.xlsx
+++ b/docs/Piau-Tsu-Im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0677332-3E17-4E0C-8DE9-5D7BB39C9063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD68A26F-6501-4EA0-8285-A0CD4895EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27765" yWindow="2280" windowWidth="26880" windowHeight="12300" activeTab="1" xr2:uid="{0F402B08-5A55-4D85-BFFD-901EEEC63974}"/>
+    <workbookView xWindow="-27765" yWindow="2280" windowWidth="26880" windowHeight="12300" activeTab="1" xr2:uid="{9A39255A-F303-4D1B-B4CF-B0058B934929}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{9DEA7F30-8364-44F6-B624-EF5464289DD6}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{B21ED041-7195-4B24-8FBF-9A393B5E0156}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC62C9E7-1321-4646-A256-18D6AC7B7D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE245420-B0EE-4BCA-A7D2-7448613B68EF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62874052-37F9-4701-BC25-52698E7721BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511623B-908E-40D0-A6BC-BDB18B608669}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
